--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail1 Features.xlsx
@@ -1827,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453029323307772</v>
+        <v>1.426247038896206</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.795497571725188</v>
@@ -1916,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.439406574849144</v>
+        <v>1.413206440790596</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.838181253830941</v>
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.442873989043908</v>
+        <v>1.422046397824892</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.579345914832163</v>
@@ -2094,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.439554936056307</v>
+        <v>1.426145413357138</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.682494800647402</v>
@@ -2183,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.436915324669522</v>
+        <v>1.426236259584721</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.681397368292876</v>
@@ -2272,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.437640629627158</v>
+        <v>1.430352768514322</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.681765322186071</v>
@@ -2361,7 +2361,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.427295203174895</v>
+        <v>1.422276924481576</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.751548013073417</v>
@@ -2450,7 +2450,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.4325470021466</v>
+        <v>1.426371410643128</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.734370670831876</v>
@@ -2539,7 +2539,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442548684650529</v>
+        <v>1.435231463531628</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.498696850232392</v>
@@ -2628,7 +2628,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.450438461496512</v>
+        <v>1.440139245361912</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.689691281091456</v>
@@ -2717,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.430447047453254</v>
+        <v>1.422931587479857</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.538858730510062</v>
@@ -2806,7 +2806,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.441779259576357</v>
+        <v>1.437441377797923</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.455580970668662</v>
@@ -2895,7 +2895,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.449835766408815</v>
+        <v>1.44644843808909</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.498805999686774</v>
@@ -2984,7 +2984,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.458257041862508</v>
+        <v>1.454420378462073</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.457965773893774</v>
@@ -3073,7 +3073,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.473929996029181</v>
+        <v>1.464173025909173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.35375286517389</v>
@@ -3162,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.501638453046952</v>
+        <v>1.487254797548375</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.677454768841375</v>
@@ -3251,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.511044017936436</v>
+        <v>1.496489942934265</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.352582377609112</v>
@@ -3340,7 +3340,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.506271316559097</v>
+        <v>1.495745023358219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.644517300719044</v>
@@ -3429,7 +3429,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506781857780939</v>
+        <v>1.494766417809734</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.651313543087613</v>
@@ -3518,7 +3518,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.498772015747163</v>
+        <v>1.491765909061341</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.506447018332286</v>
@@ -3607,7 +3607,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49841453921941</v>
+        <v>1.486468785511622</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.54561201330509</v>
@@ -3696,7 +3696,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.504049187819059</v>
+        <v>1.488523005829847</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.682421288061758</v>
@@ -3785,7 +3785,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.502468377675717</v>
+        <v>1.488426690969692</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.661505483319114</v>
@@ -3874,7 +3874,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491726720381467</v>
+        <v>1.478601037156068</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.680743597191647</v>
@@ -3963,7 +3963,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.473962829973618</v>
+        <v>1.464171117677122</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.546609956260395</v>
@@ -4052,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.499851190539522</v>
+        <v>1.490978872786517</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.720106342522588</v>
@@ -4141,7 +4141,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.498617960143962</v>
+        <v>1.484062703875515</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.837369951531933</v>
@@ -4230,7 +4230,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.485816077092003</v>
+        <v>1.471879663934688</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.697648936123592</v>
@@ -4319,7 +4319,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.482682224007178</v>
+        <v>1.46998233643114</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.698835120919783</v>
@@ -4408,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.467134555158829</v>
+        <v>1.45386365726142</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.906947943382965</v>
@@ -4497,7 +4497,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468688968270774</v>
+        <v>1.45760159040338</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.466107862528154</v>
@@ -4586,7 +4586,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486159841129461</v>
+        <v>1.466921643313802</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.704249077329882</v>
@@ -4675,7 +4675,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.496424167468699</v>
+        <v>1.476373801795667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.770299240131987</v>
@@ -4764,7 +4764,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.507758116179535</v>
+        <v>1.483043011210389</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.838857942963311</v>
@@ -4853,7 +4853,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529476368741256</v>
+        <v>1.496388307429928</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.806828274261898</v>
@@ -4942,7 +4942,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.52996407320692</v>
+        <v>1.507208446598536</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.059264466417262</v>
@@ -5031,7 +5031,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525543202216335</v>
+        <v>1.500178531877628</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.122552286077421</v>
@@ -5120,7 +5120,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527404520661108</v>
+        <v>1.498899456546833</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.106151421707898</v>
@@ -5209,7 +5209,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.524337023565375</v>
+        <v>1.497199367206378</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.844949439950973</v>
@@ -5298,7 +5298,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.534842749413179</v>
+        <v>1.495725937969408</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.549826018417193</v>
@@ -5387,7 +5387,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538818530995126</v>
+        <v>1.49568026280311</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.927655274082179</v>
@@ -5476,7 +5476,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549443880298468</v>
+        <v>1.506017938058717</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.733624692693532</v>
@@ -5762,7 +5762,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.666648390018492</v>
+        <v>1.647426880283431</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.05509819218088</v>
@@ -5851,7 +5851,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.685772811238103</v>
+        <v>1.664863161525089</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.689370380422665</v>
@@ -5940,7 +5940,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.715100569911651</v>
+        <v>1.695136307641686</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.024274174965329</v>
@@ -6029,7 +6029,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.723210727145623</v>
+        <v>1.709327764352726</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.957468790122706</v>
@@ -6118,7 +6118,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.726784084146061</v>
+        <v>1.708887298902511</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.677266815767799</v>
@@ -6207,7 +6207,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.766092869707294</v>
+        <v>1.752298774013447</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.213381927817202</v>
@@ -6296,7 +6296,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.761021365581628</v>
+        <v>1.73974860447697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.299035264538496</v>
@@ -6385,7 +6385,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.738021050750258</v>
+        <v>1.728178912054293</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.134184602726694</v>
@@ -6474,7 +6474,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.715029735775492</v>
+        <v>1.711060876320436</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.168858923983187</v>
@@ -6563,7 +6563,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.710985827059829</v>
+        <v>1.704329111102569</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.075610173164788</v>
@@ -6652,7 +6652,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.724694819988586</v>
+        <v>1.718513072428591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.264913191639962</v>
@@ -6741,7 +6741,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.720989326393599</v>
+        <v>1.714998231589599</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.055590446860746</v>
@@ -6830,7 +6830,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.730106301435135</v>
+        <v>1.722476827973095</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.856817994583328</v>
@@ -6919,7 +6919,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.746594498831134</v>
+        <v>1.738113708844943</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.408336970164715</v>
@@ -7008,7 +7008,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.733706115162279</v>
+        <v>1.725805944366459</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.287036835013931</v>
@@ -7097,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720359525704364</v>
+        <v>1.712743810581286</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.142647000334532</v>
@@ -7186,7 +7186,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.711999689385498</v>
+        <v>1.70411852905031</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.999807701423628</v>
@@ -7275,7 +7275,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.690879454519808</v>
+        <v>1.682132491847626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.215077520709744</v>
@@ -7364,7 +7364,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.686850498846172</v>
+        <v>1.673994375684664</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.089645594292556</v>
@@ -7453,7 +7453,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.683193898615637</v>
+        <v>1.6738253296412</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.828563363030325</v>
@@ -7542,7 +7542,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.69240214581243</v>
+        <v>1.681837070142992</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.249141362320555</v>
@@ -7631,7 +7631,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.718657775444489</v>
+        <v>1.705179995975733</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.147597816141349</v>
@@ -7720,7 +7720,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.725962130443304</v>
+        <v>1.709401075732252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.979447856850831</v>
@@ -7809,7 +7809,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.74287950882239</v>
+        <v>1.719649397730188</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.283303703852268</v>
@@ -7898,7 +7898,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.734057155309594</v>
+        <v>1.713391073514807</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.378637064301724</v>
@@ -7987,7 +7987,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.731182184245913</v>
+        <v>1.709491690406822</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.350475995824577</v>
@@ -8076,7 +8076,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.741131023381528</v>
+        <v>1.717740179787128</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.275060186049331</v>
@@ -8165,7 +8165,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.725300563465223</v>
+        <v>1.704404349143102</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.308710154585554</v>
@@ -8254,7 +8254,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.728806477575874</v>
+        <v>1.704477640813084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.941405462704826</v>
@@ -8343,7 +8343,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.738057088849638</v>
+        <v>1.710452001329481</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.17380652314778</v>
@@ -8432,7 +8432,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.718374547714383</v>
+        <v>1.698070004617204</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.71442893988545</v>
@@ -8521,7 +8521,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.723520530408634</v>
+        <v>1.705383114141661</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.78538802922839</v>
@@ -8610,7 +8610,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.742002991302527</v>
+        <v>1.725019320837423</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.591360190673934</v>
@@ -8699,7 +8699,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.7473420731642</v>
+        <v>1.731596915231733</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.668417083581812</v>
@@ -8788,7 +8788,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.725681824022969</v>
+        <v>1.71818592855231</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.761299845161898</v>
@@ -8877,7 +8877,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.705298836382055</v>
+        <v>1.700651689456589</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.85964962325984</v>
@@ -8966,7 +8966,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.695792431930659</v>
+        <v>1.689008278330767</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.911171333004325</v>
@@ -9055,7 +9055,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686949259125615</v>
+        <v>1.682209204472487</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.908074111961971</v>
@@ -9144,7 +9144,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.675387020963093</v>
+        <v>1.672091619529891</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.827028861355732</v>
@@ -9233,7 +9233,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.690571155822385</v>
+        <v>1.682338233782161</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.043974941956654</v>
@@ -9322,7 +9322,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.688259562303829</v>
+        <v>1.680500422304317</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.014536554392338</v>
@@ -9411,7 +9411,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.682204898657038</v>
+        <v>1.671683495147609</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.77684732304281</v>
@@ -9697,7 +9697,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.596995530852601</v>
+        <v>1.553872853308384</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.762684868846663</v>
@@ -9786,7 +9786,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.618759779889267</v>
+        <v>1.573564307583547</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.651071136161858</v>
@@ -9875,7 +9875,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.627038763178995</v>
+        <v>1.585324654695277</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.69617107468809</v>
@@ -9964,7 +9964,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.646645764462916</v>
+        <v>1.610114503372629</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.882250234477</v>
@@ -10053,7 +10053,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.654098299434591</v>
+        <v>1.607173790217709</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.435266610964311</v>
@@ -10142,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.698800960607861</v>
+        <v>1.637062252858922</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.785514033090064</v>
@@ -10231,7 +10231,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.704410734844123</v>
+        <v>1.634939218496155</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.013624924883951</v>
@@ -10320,7 +10320,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671390805979259</v>
+        <v>1.613339822066466</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.939009232591552</v>
@@ -10409,7 +10409,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665935979946029</v>
+        <v>1.617238628343208</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.950729291144057</v>
@@ -10498,7 +10498,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.661641144041098</v>
+        <v>1.616224837511644</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.01840974478214</v>
@@ -10587,7 +10587,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.664206963048292</v>
+        <v>1.619977571930544</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.090670617938486</v>
@@ -10676,7 +10676,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668695118666576</v>
+        <v>1.624546643080776</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.826608588272896</v>
@@ -10765,7 +10765,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.664899982108077</v>
+        <v>1.622034117074527</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.097299062270542</v>
@@ -10854,7 +10854,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668368125849107</v>
+        <v>1.628739045482318</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.051093242002878</v>
@@ -10943,7 +10943,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670459882273412</v>
+        <v>1.633555818651701</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.127046582641829</v>
@@ -11032,7 +11032,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.658960630292891</v>
+        <v>1.617134517849177</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.090832386166327</v>
@@ -11121,7 +11121,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.653399209413148</v>
+        <v>1.615391741464924</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.093662707621456</v>
@@ -11210,7 +11210,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665353688058072</v>
+        <v>1.62322309832527</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.965799599527645</v>
@@ -11299,7 +11299,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.657112543552019</v>
+        <v>1.615592632452332</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.180125520344776</v>
@@ -11388,7 +11388,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.656719969938492</v>
+        <v>1.620380677328955</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.834263980759585</v>
@@ -11477,7 +11477,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.657954064586146</v>
+        <v>1.616662873024879</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.107544857851378</v>
@@ -11566,7 +11566,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.679271951417116</v>
+        <v>1.632877146207443</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.33735654062483</v>
@@ -11655,7 +11655,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.691828814324129</v>
+        <v>1.641839918738843</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.805477187059461</v>
@@ -11744,7 +11744,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702544307604335</v>
+        <v>1.649222230680989</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.286971450501446</v>
@@ -11833,7 +11833,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.695338987025532</v>
+        <v>1.643079396208492</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.711634464357584</v>
@@ -11922,7 +11922,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.699028897990996</v>
+        <v>1.643957513930679</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.58544175864814</v>
@@ -12011,7 +12011,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.697671274902089</v>
+        <v>1.637386560160532</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.442517614925836</v>
@@ -12100,7 +12100,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.688353393126908</v>
+        <v>1.633629538141143</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.829692008116056</v>
@@ -12189,7 +12189,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682387549140093</v>
+        <v>1.625038059544109</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.256178260379346</v>
@@ -12278,7 +12278,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.643080022019802</v>
+        <v>1.592883593288535</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.463815830194199</v>
@@ -12367,7 +12367,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629311615082153</v>
+        <v>1.589099157458544</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.43341184191128</v>
@@ -12456,7 +12456,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625339962516718</v>
+        <v>1.582436083408231</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.599304770896865</v>
@@ -12545,7 +12545,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.626650996762473</v>
+        <v>1.586112316542028</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.600418301557629</v>
@@ -12634,7 +12634,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631035831340105</v>
+        <v>1.585592936907948</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.513181599023744</v>
@@ -12723,7 +12723,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606475561165596</v>
+        <v>1.56416152318459</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.608257894431238</v>
@@ -12812,7 +12812,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614805686317277</v>
+        <v>1.582377294121689</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.527189714703744</v>
@@ -12901,7 +12901,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.60609877542318</v>
+        <v>1.569834122298184</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.575768830424125</v>
@@ -12990,7 +12990,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608088383820757</v>
+        <v>1.569845289079738</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.608190344369592</v>
@@ -13079,7 +13079,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.601996935553116</v>
+        <v>1.560206979464528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.604382425442629</v>
@@ -13168,7 +13168,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607684039004514</v>
+        <v>1.565443437600091</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.693112139090144</v>
@@ -13257,7 +13257,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.604733052993847</v>
+        <v>1.564175141378</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.6966152692226</v>
@@ -13346,7 +13346,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.598876037327042</v>
+        <v>1.560052387611516</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.622298003558615</v>
@@ -13632,7 +13632,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691014912554076</v>
+        <v>1.621277829273664</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.557689632878777</v>
@@ -13721,7 +13721,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688678733747928</v>
+        <v>1.619240552644901</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.510803001995585</v>
@@ -13810,7 +13810,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.69390827437323</v>
+        <v>1.632977350278031</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.470254996678427</v>
@@ -13899,7 +13899,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701364987687869</v>
+        <v>1.640757511176936</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.666442985369041</v>
@@ -13988,7 +13988,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.706855594885486</v>
+        <v>1.641291587835559</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.588047971121652</v>
@@ -14077,7 +14077,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.731020185914251</v>
+        <v>1.662296472941072</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.341320564257063</v>
@@ -14166,7 +14166,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.728839535830527</v>
+        <v>1.657470133269038</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.718680627222382</v>
@@ -14255,7 +14255,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.720612482236189</v>
+        <v>1.652781926806254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.496690062590083</v>
@@ -14344,7 +14344,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.727045372311818</v>
+        <v>1.661041018071942</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.071537094563186</v>
@@ -14433,7 +14433,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.717373486122024</v>
+        <v>1.648710948506091</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.287386687405207</v>
@@ -14522,7 +14522,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.723259473597173</v>
+        <v>1.659398441255419</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.072992113855925</v>
@@ -14611,7 +14611,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.723595957564484</v>
+        <v>1.66165987804203</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.544974759095226</v>
@@ -14700,7 +14700,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.705244131266881</v>
+        <v>1.652664318006035</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.843335693571148</v>
@@ -14789,7 +14789,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707694885509156</v>
+        <v>1.649750266714383</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.874200879948612</v>
@@ -14878,7 +14878,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.692730529061517</v>
+        <v>1.637198098439886</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.044993337563017</v>
@@ -14967,7 +14967,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.684102191518793</v>
+        <v>1.625051957388364</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.685767319881736</v>
@@ -15056,7 +15056,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689372115998011</v>
+        <v>1.628468334122218</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.651500490609504</v>
@@ -15145,7 +15145,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680362966170718</v>
+        <v>1.628493143275394</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.899999356291609</v>
@@ -15234,7 +15234,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689524572806295</v>
+        <v>1.636527002631671</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.615815776410716</v>
@@ -15323,7 +15323,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.684394575136303</v>
+        <v>1.641484607733356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.471996221979579</v>
@@ -15412,7 +15412,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.684030296377</v>
+        <v>1.638546618711699</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.38549323555807</v>
@@ -15501,7 +15501,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.679990607630808</v>
+        <v>1.638878104865413</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.977020725394264</v>
@@ -15590,7 +15590,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676390781091019</v>
+        <v>1.63604463766766</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.899199056295578</v>
@@ -15679,7 +15679,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682407432453699</v>
+        <v>1.636756662060813</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.756075944593802</v>
@@ -15768,7 +15768,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.677779433849156</v>
+        <v>1.637211749446298</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.758984919662935</v>
@@ -15857,7 +15857,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.676173559362968</v>
+        <v>1.634373372012059</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.315682499833657</v>
@@ -15946,7 +15946,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671544814861919</v>
+        <v>1.626123742183015</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.714918858083121</v>
@@ -16035,7 +16035,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.681439050606087</v>
+        <v>1.634260778873533</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.674142554242278</v>
@@ -16124,7 +16124,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.680350505331356</v>
+        <v>1.630717795396998</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.502393559730931</v>
@@ -16213,7 +16213,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653272092837131</v>
+        <v>1.614089943462983</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.839668349447393</v>
@@ -16302,7 +16302,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657181546286253</v>
+        <v>1.619153377405329</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.81465475322526</v>
@@ -16391,7 +16391,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654132077790884</v>
+        <v>1.616195748003055</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.716607387938331</v>
@@ -16480,7 +16480,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.651109855081158</v>
+        <v>1.613974750999791</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.730836382808933</v>
@@ -16569,7 +16569,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6550344279105</v>
+        <v>1.615065212854506</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.835869876792256</v>
@@ -16658,7 +16658,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653896515606348</v>
+        <v>1.609570027441203</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.784613419143431</v>
@@ -16747,7 +16747,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648690161936678</v>
+        <v>1.603668946359151</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.691331040738244</v>
@@ -16836,7 +16836,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64803360479998</v>
+        <v>1.601454790669344</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.783721633996406</v>
@@ -16925,7 +16925,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.644043928417644</v>
+        <v>1.600033636245654</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.835167593736312</v>
@@ -17014,7 +17014,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656712439824674</v>
+        <v>1.612557629384951</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.757925108823375</v>
@@ -17103,7 +17103,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.653848758109508</v>
+        <v>1.603697833197948</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.721751744283334</v>
@@ -17192,7 +17192,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648768871013836</v>
+        <v>1.600482949826588</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.926865841055279</v>
@@ -17281,7 +17281,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646886391315428</v>
+        <v>1.602362922856011</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.837160376524359</v>
@@ -17567,7 +17567,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.618502714809243</v>
+        <v>1.534916545438967</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.14562503576831</v>
@@ -17656,7 +17656,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.630852160204684</v>
+        <v>1.543895306689509</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.02656484429559</v>
@@ -17745,7 +17745,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.632447098268745</v>
+        <v>1.545164347293817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.062336673939777</v>
@@ -17834,7 +17834,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.636922321401259</v>
+        <v>1.547047078314004</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.119754424294141</v>
@@ -17923,7 +17923,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639218723859105</v>
+        <v>1.556471563670855</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.647857769098405</v>
@@ -18012,7 +18012,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.668619399656452</v>
+        <v>1.582428238614073</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.894178804432233</v>
@@ -18101,7 +18101,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.668599801068222</v>
+        <v>1.580140321247069</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.36586213690345</v>
@@ -18190,7 +18190,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662003930345757</v>
+        <v>1.574283703652308</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.695770571188673</v>
@@ -18279,7 +18279,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.660740577537174</v>
+        <v>1.574177553372004</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.963210046023659</v>
@@ -18368,7 +18368,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660747382005545</v>
+        <v>1.575861254827328</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.020815294822135</v>
@@ -18457,7 +18457,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.652454370464773</v>
+        <v>1.576837094822264</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.87159646984</v>
@@ -18546,7 +18546,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.655154601291496</v>
+        <v>1.586648282783728</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.072180267646199</v>
@@ -18635,7 +18635,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.654760722582676</v>
+        <v>1.591812262384645</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.84134912960591</v>
@@ -18724,7 +18724,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.661065868193282</v>
+        <v>1.599840932865843</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.121611661811559</v>
@@ -18813,7 +18813,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654641347117123</v>
+        <v>1.59053148737056</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134388655053358</v>
@@ -18902,7 +18902,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.657039880126636</v>
+        <v>1.594410082231733</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.075031577364395</v>
@@ -18991,7 +18991,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658432274072029</v>
+        <v>1.594308199136587</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.22070518426158</v>
@@ -19080,7 +19080,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.657814706164933</v>
+        <v>1.595547069150079</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.873374936996373</v>
@@ -19169,7 +19169,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.660924011832841</v>
+        <v>1.5976732554828</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.059317081472197</v>
@@ -19258,7 +19258,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.657003550255125</v>
+        <v>1.597408559050912</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.061394619511312</v>
@@ -19347,7 +19347,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.656910527139574</v>
+        <v>1.596639034591624</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.905255150486675</v>
@@ -19436,7 +19436,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667130129774651</v>
+        <v>1.597836034677462</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.485078724927416</v>
@@ -19525,7 +19525,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.673587767601656</v>
+        <v>1.615321780160979</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.074383062980298</v>
@@ -19614,7 +19614,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682811880935524</v>
+        <v>1.62191713036912</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.591663952712259</v>
@@ -19703,7 +19703,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.683082559759112</v>
+        <v>1.62356836087425</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.415415520688639</v>
@@ -19792,7 +19792,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.679107926427715</v>
+        <v>1.618449293221203</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.464980829264813</v>
@@ -19881,7 +19881,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.682080935053974</v>
+        <v>1.617201247784259</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.404070728688713</v>
@@ -19970,7 +19970,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.692673321525642</v>
+        <v>1.625917445247933</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.554010511894568</v>
@@ -20059,7 +20059,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682629985236274</v>
+        <v>1.612511176583229</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.28464712929214</v>
@@ -20148,7 +20148,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.659322613780188</v>
+        <v>1.602642052542207</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.505659958469371</v>
@@ -20237,7 +20237,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.645261440057332</v>
+        <v>1.592227994078068</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.610441775781751</v>
@@ -20326,7 +20326,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645029002438226</v>
+        <v>1.593038005929748</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.567845177207228</v>
@@ -20415,7 +20415,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.641285974386721</v>
+        <v>1.589127309408592</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.513063692559576</v>
@@ -20504,7 +20504,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.652554636272412</v>
+        <v>1.596088023777411</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.722005205631725</v>
@@ -20593,7 +20593,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.641025588228171</v>
+        <v>1.58857587821698</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.594272504343508</v>
@@ -20682,7 +20682,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.642300150255303</v>
+        <v>1.59104330685459</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.61880736309408</v>
@@ -20771,7 +20771,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.636762636944981</v>
+        <v>1.591036591347065</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.504884723891425</v>
@@ -20860,7 +20860,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628339864002833</v>
+        <v>1.578613557016471</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.617900509546053</v>
@@ -20949,7 +20949,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621473696002014</v>
+        <v>1.571651776671824</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.691008633898182</v>
@@ -21038,7 +21038,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624110689188427</v>
+        <v>1.562723208825285</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.64020958259746</v>
@@ -21127,7 +21127,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620198552274623</v>
+        <v>1.556149858723964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.59025038385288</v>
@@ -21216,7 +21216,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.612802127120001</v>
+        <v>1.554963801655055</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.823681945530667</v>
@@ -21502,7 +21502,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50366850925359</v>
+        <v>1.47573259475381</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.39988013601977</v>
@@ -21591,7 +21591,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517859081515729</v>
+        <v>1.487288664478192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.439928553366105</v>
@@ -21680,7 +21680,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.521865911736796</v>
+        <v>1.492445233314474</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.294040846171596</v>
@@ -21769,7 +21769,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.556367195127759</v>
+        <v>1.526941167797595</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.5467735561106</v>
@@ -21858,7 +21858,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.523068855711285</v>
+        <v>1.502342936221177</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.452190918328055</v>
@@ -21947,7 +21947,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567671122361622</v>
+        <v>1.543035020898495</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.336700762963077</v>
@@ -22036,7 +22036,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577586259997761</v>
+        <v>1.54566283075103</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.679328121183546</v>
@@ -22125,7 +22125,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552130244617441</v>
+        <v>1.529569635486002</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.774145568910998</v>
@@ -22214,7 +22214,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.555530947129014</v>
+        <v>1.533009641644688</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.628671600600113</v>
@@ -22303,7 +22303,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.542190726923365</v>
+        <v>1.519951815800172</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.894734999341982</v>
@@ -22392,7 +22392,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.53456989805375</v>
+        <v>1.515654773003725</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.871115823494675</v>
@@ -22481,7 +22481,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.52631757027884</v>
+        <v>1.50952020168901</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.804615089118601</v>
@@ -22570,7 +22570,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524637442346849</v>
+        <v>1.512881143471451</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.723371668360284</v>
@@ -22659,7 +22659,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525306611994664</v>
+        <v>1.517115895109715</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.713153636178244</v>
@@ -22748,7 +22748,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.525814458936347</v>
+        <v>1.514863051972921</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.913012068831864</v>
@@ -22837,7 +22837,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527701588091683</v>
+        <v>1.512752512914252</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.944160026990479</v>
@@ -22926,7 +22926,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.532026681995504</v>
+        <v>1.518672000460061</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.895749849268265</v>
@@ -23015,7 +23015,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5220734264262</v>
+        <v>1.514968497309571</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.893236417807204</v>
@@ -23104,7 +23104,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.526868754242015</v>
+        <v>1.520269876092088</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.801409373949826</v>
@@ -23193,7 +23193,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.552070576603068</v>
+        <v>1.548495819112105</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.689642862727834</v>
@@ -23282,7 +23282,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.544565595881761</v>
+        <v>1.54299588880985</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.731379003016005</v>
@@ -23371,7 +23371,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557462749826027</v>
+        <v>1.555975460048859</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.002693299655629</v>
@@ -23460,7 +23460,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.558633275302555</v>
+        <v>1.55975557713052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.941613770844532</v>
@@ -23549,7 +23549,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.556491464123924</v>
+        <v>1.561806338735144</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.240212101197692</v>
@@ -23638,7 +23638,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564723651290155</v>
+        <v>1.571090443303507</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.23753154440429</v>
@@ -23727,7 +23727,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.550984409202837</v>
+        <v>1.563247842922663</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.158043129272404</v>
@@ -23816,7 +23816,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.55480207924611</v>
+        <v>1.566684371692605</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.821473624273115</v>
@@ -23905,7 +23905,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.559423534067182</v>
+        <v>1.571463838494248</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.193634532882751</v>
@@ -23994,7 +23994,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563868540151587</v>
+        <v>1.573086412425869</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.137660103439385</v>
@@ -24083,7 +24083,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.537098235620876</v>
+        <v>1.550174120982718</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.641832755354764</v>
@@ -24172,7 +24172,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528326506597409</v>
+        <v>1.543038086282293</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.663756348844726</v>
@@ -24261,7 +24261,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.524608849771974</v>
+        <v>1.538840142695165</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.797050892926115</v>
@@ -24350,7 +24350,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532858002982818</v>
+        <v>1.545748585708849</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.556761597648492</v>
@@ -24439,7 +24439,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.5385586723532</v>
+        <v>1.550830231190233</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.497787031731312</v>
@@ -24528,7 +24528,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.494392227372082</v>
+        <v>1.506922985033263</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.210371018002178</v>
@@ -24617,7 +24617,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.502315709691033</v>
+        <v>1.512670841721131</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.457665720751295</v>
@@ -24706,7 +24706,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.502408808789032</v>
+        <v>1.514904387804719</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.237043623470032</v>
@@ -24795,7 +24795,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486821261272976</v>
+        <v>1.496648102840198</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.341640582239689</v>
@@ -24884,7 +24884,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.488312038699151</v>
+        <v>1.496069624706301</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.261956854494136</v>
@@ -24973,7 +24973,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.482003062989336</v>
+        <v>1.482374396695536</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.482252554547073</v>
@@ -25062,7 +25062,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.496788814097496</v>
+        <v>1.492312541517844</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.494054788319312</v>
@@ -25151,7 +25151,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488490765965286</v>
+        <v>1.482999583343924</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.367749017638329</v>
